--- a/src/main/resources/BillTemplate.xlsx
+++ b/src/main/resources/BillTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="42">
   <si>
     <t>ORIGINAL FOR RECIPIENT</t>
   </si>
@@ -157,25 +157,24 @@
   <si>
     <t>This is a Computer Generated Invoice</t>
   </si>
+  <si>
+    <t>DUPLICATE FOR RECIPIENT</t>
+  </si>
+  <si>
+    <t>TRIPLICATE FOR SUPPLIER</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,14 +202,6 @@
       <color theme="1"/>
       <name val="Bookman Old Style"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -261,8 +252,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,6 +262,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,16 +282,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,6 +331,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,13 +395,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -426,43 +417,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,25 +459,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,12 +495,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -540,43 +507,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,19 +543,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,715 +1357,724 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="57" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="57" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2396,10 +2396,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="S62" sqref="S62"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="P148" sqref="P148:Q148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15"/>
@@ -2438,14 +2438,14 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="164"/>
+      <c r="L2" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="166"/>
     </row>
     <row r="3" ht="35.25" spans="1:17">
       <c r="A3" s="4"/>
@@ -2464,7 +2464,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="165"/>
+      <c r="Q3" s="167"/>
     </row>
     <row r="4" ht="15.75" spans="1:17">
       <c r="A4" s="6" t="s">
@@ -2485,7 +2485,7 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="166"/>
+      <c r="Q4" s="168"/>
     </row>
     <row r="5" ht="15.75" spans="1:17">
       <c r="A5" s="8" t="s">
@@ -2506,7 +2506,7 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
-      <c r="Q5" s="167"/>
+      <c r="Q5" s="169"/>
     </row>
     <row r="6" ht="16.5" spans="1:17">
       <c r="A6" s="10" t="s">
@@ -2527,7 +2527,7 @@
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
-      <c r="Q6" s="168"/>
+      <c r="Q6" s="170"/>
     </row>
     <row r="7" ht="15.75" spans="1:17">
       <c r="A7" s="12"/>
@@ -2546,7 +2546,7 @@
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
-      <c r="Q7" s="169"/>
+      <c r="Q7" s="171"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="14" t="s">
@@ -2567,7 +2567,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
-      <c r="Q8" s="170"/>
+      <c r="Q8" s="172"/>
     </row>
     <row r="9" ht="15.75" spans="1:17">
       <c r="A9" s="16"/>
@@ -2586,7 +2586,7 @@
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
       <c r="P9" s="17"/>
-      <c r="Q9" s="171"/>
+      <c r="Q9" s="173"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="18" t="s">
@@ -2599,17 +2599,17 @@
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="28" t="s">
+      <c r="I10" s="106"/>
+      <c r="J10" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="172"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="174"/>
     </row>
     <row r="11" ht="15.75" spans="1:17">
       <c r="A11" s="21" t="s">
@@ -2622,17 +2622,17 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="107" t="s">
+      <c r="I11" s="109"/>
+      <c r="J11" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="173"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="175"/>
     </row>
     <row r="12" ht="15.75" spans="1:17">
       <c r="A12" s="24"/>
@@ -2647,11 +2647,11 @@
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="174"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="176"/>
     </row>
     <row r="13" ht="15.75" spans="1:17">
       <c r="A13" s="26" t="s">
@@ -2664,7 +2664,7 @@
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
-      <c r="I13" s="109"/>
+      <c r="I13" s="114"/>
       <c r="J13" s="26" t="s">
         <v>10</v>
       </c>
@@ -2674,7 +2674,7 @@
       <c r="N13" s="27"/>
       <c r="O13" s="27"/>
       <c r="P13" s="27"/>
-      <c r="Q13" s="109"/>
+      <c r="Q13" s="114"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="28" t="s">
@@ -2687,7 +2687,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
-      <c r="I14" s="110"/>
+      <c r="I14" s="115"/>
       <c r="J14" s="28" t="s">
         <v>12</v>
       </c>
@@ -2700,7 +2700,7 @@
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
-      <c r="Q14" s="104"/>
+      <c r="Q14" s="106"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="31" t="s">
@@ -2713,20 +2713,20 @@
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
-      <c r="I15" s="111"/>
+      <c r="I15" s="116"/>
       <c r="J15" s="31" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="32"/>
-      <c r="L15" s="112">
+      <c r="L15" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="112"/>
-      <c r="N15" s="112"/>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="175"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="116"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="34"/>
@@ -2737,100 +2737,100 @@
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
-      <c r="I16" s="113"/>
+      <c r="I16" s="117"/>
       <c r="J16" s="34"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="114"/>
-      <c r="N16" s="114"/>
-      <c r="O16" s="114"/>
-      <c r="P16" s="114"/>
-      <c r="Q16" s="176"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="117"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="21" t="s">
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="116">
+      <c r="K17" s="38"/>
+      <c r="L17" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="116"/>
-      <c r="Q17" s="177"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="118"/>
     </row>
     <row r="18" ht="15.75" spans="1:17">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="117"/>
-      <c r="J18" s="38" t="s">
+      <c r="I18" s="119"/>
+      <c r="J18" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="39"/>
-      <c r="L18" s="118">
+      <c r="K18" s="41"/>
+      <c r="L18" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="119"/>
-      <c r="P18" s="42" t="s">
+      <c r="M18" s="120"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="Q18" s="178">
+      <c r="Q18" s="177">
         <f>I18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="1:17">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44">
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46">
         <f>C18</f>
         <v>0</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="42" t="s">
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="Q19" s="178">
+      <c r="Q19" s="177">
         <f>I18</f>
         <v>0</v>
       </c>
@@ -2852,773 +2852,764 @@
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
-      <c r="Q20" s="169"/>
+      <c r="Q20" s="171"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="46" t="s">
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="121" t="s">
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="46" t="s">
+      <c r="L21" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="122" t="s">
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="Q21" s="179"/>
+      <c r="Q21" s="178"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="49"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="124"/>
-      <c r="Q22" s="180"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="126"/>
+      <c r="Q22" s="179"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="53">
+      <c r="A23" s="55">
         <v>1</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="127"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="128"/>
-      <c r="P23" s="129">
+      <c r="B23" s="56"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="127"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="130"/>
+      <c r="P23" s="131">
         <f t="shared" ref="P23:P27" si="1">K23*L23</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="181"/>
+      <c r="Q23" s="180"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="53">
+      <c r="A24" s="55">
         <v>2</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="128"/>
-      <c r="P24" s="129">
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="127"/>
+      <c r="L24" s="128"/>
+      <c r="M24" s="129"/>
+      <c r="N24" s="129"/>
+      <c r="O24" s="130"/>
+      <c r="P24" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="181"/>
+      <c r="Q24" s="180"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="53">
+      <c r="A25" s="55">
         <v>3</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="127"/>
-      <c r="N25" s="127"/>
-      <c r="O25" s="128"/>
-      <c r="P25" s="129">
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="127"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="130"/>
+      <c r="P25" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="181"/>
+      <c r="Q25" s="180"/>
     </row>
     <row r="26" ht="15.75" spans="1:17">
-      <c r="A26" s="57">
+      <c r="A26" s="59">
         <v>4</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="127"/>
-      <c r="N26" s="127"/>
-      <c r="O26" s="128"/>
-      <c r="P26" s="129">
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="127"/>
+      <c r="L26" s="128"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="130"/>
+      <c r="P26" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="181"/>
+      <c r="Q26" s="180"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="58">
+      <c r="A27" s="60">
         <v>5</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="127"/>
-      <c r="N27" s="127"/>
-      <c r="O27" s="128"/>
-      <c r="P27" s="129">
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="127"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="129"/>
+      <c r="O27" s="130"/>
+      <c r="P27" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="181"/>
+      <c r="Q27" s="180"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="53">
+      <c r="A28" s="55">
         <v>6</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="125"/>
-      <c r="L28" s="126"/>
-      <c r="M28" s="127"/>
-      <c r="N28" s="127"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="129">
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="127"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="129"/>
+      <c r="O28" s="130"/>
+      <c r="P28" s="131">
         <f t="shared" ref="P28:P32" si="2">L28*K28</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="181"/>
+      <c r="Q28" s="180"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="53">
+      <c r="A29" s="55">
         <v>7</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="125"/>
-      <c r="L29" s="126"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="127"/>
-      <c r="O29" s="128"/>
-      <c r="P29" s="129">
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="128"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="130"/>
+      <c r="P29" s="131">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="181"/>
+      <c r="Q29" s="180"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="53">
+      <c r="A30" s="55">
         <v>8</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="127"/>
-      <c r="N30" s="127"/>
-      <c r="O30" s="128"/>
-      <c r="P30" s="129">
+      <c r="B30" s="56"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="128"/>
+      <c r="M30" s="129"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="130"/>
+      <c r="P30" s="131">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="181"/>
+      <c r="Q30" s="180"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="53">
+      <c r="A31" s="55">
         <v>9</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="127"/>
-      <c r="N31" s="127"/>
-      <c r="O31" s="128"/>
-      <c r="P31" s="129">
+      <c r="B31" s="56"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="128"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="130"/>
+      <c r="P31" s="131">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="181"/>
+      <c r="Q31" s="180"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="53">
+      <c r="A32" s="55">
         <v>10</v>
       </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="125"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="129">
+      <c r="B32" s="56"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="127"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="131">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="181"/>
+      <c r="Q32" s="180"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="53">
+      <c r="A33" s="55">
         <v>11</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="125"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="127"/>
-      <c r="N33" s="127"/>
-      <c r="O33" s="128"/>
-      <c r="P33" s="129">
+      <c r="B33" s="61"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="127"/>
+      <c r="L33" s="128"/>
+      <c r="M33" s="129"/>
+      <c r="N33" s="129"/>
+      <c r="O33" s="130"/>
+      <c r="P33" s="131">
         <f t="shared" ref="P33:P37" si="3">K33*L33</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="181"/>
+      <c r="Q33" s="180"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="53">
+      <c r="A34" s="55">
         <v>12</v>
       </c>
-      <c r="B34" s="59"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="125"/>
-      <c r="L34" s="126"/>
-      <c r="M34" s="127"/>
-      <c r="N34" s="127"/>
-      <c r="O34" s="128"/>
-      <c r="P34" s="129">
+      <c r="B34" s="61"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="127"/>
+      <c r="L34" s="128"/>
+      <c r="M34" s="129"/>
+      <c r="N34" s="129"/>
+      <c r="O34" s="130"/>
+      <c r="P34" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="181"/>
+      <c r="Q34" s="180"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="53">
+      <c r="A35" s="55">
         <v>13</v>
       </c>
-      <c r="B35" s="59"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="125"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="127"/>
-      <c r="N35" s="127"/>
-      <c r="O35" s="128"/>
-      <c r="P35" s="129">
+      <c r="B35" s="61"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="127"/>
+      <c r="L35" s="128"/>
+      <c r="M35" s="129"/>
+      <c r="N35" s="129"/>
+      <c r="O35" s="130"/>
+      <c r="P35" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="181"/>
+      <c r="Q35" s="180"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="62">
+      <c r="A36" s="64">
         <v>14</v>
       </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="130"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="127"/>
-      <c r="N36" s="127"/>
-      <c r="O36" s="128"/>
-      <c r="P36" s="129">
+      <c r="B36" s="61"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="132"/>
+      <c r="L36" s="128"/>
+      <c r="M36" s="129"/>
+      <c r="N36" s="129"/>
+      <c r="O36" s="130"/>
+      <c r="P36" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="181"/>
+      <c r="Q36" s="180"/>
     </row>
     <row r="37" ht="15.75" spans="1:17">
-      <c r="A37" s="57">
+      <c r="A37" s="59">
         <v>15</v>
       </c>
-      <c r="B37" s="63"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="132"/>
-      <c r="K37" s="133"/>
-      <c r="L37" s="134"/>
-      <c r="M37" s="135"/>
-      <c r="N37" s="135"/>
-      <c r="O37" s="136"/>
-      <c r="P37" s="137">
+      <c r="B37" s="65"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="133"/>
+      <c r="J37" s="134"/>
+      <c r="K37" s="135"/>
+      <c r="L37" s="136"/>
+      <c r="M37" s="137"/>
+      <c r="N37" s="137"/>
+      <c r="O37" s="138"/>
+      <c r="P37" s="139">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="182"/>
+      <c r="Q37" s="181"/>
     </row>
     <row r="38" ht="21" spans="1:17">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="138"/>
-      <c r="K38" s="139">
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="140"/>
+      <c r="K38" s="141">
         <f>SUM(K23:K37)</f>
         <v>0</v>
       </c>
-      <c r="L38" s="140"/>
-      <c r="M38" s="141"/>
-      <c r="N38" s="141"/>
-      <c r="O38" s="142"/>
-      <c r="P38" s="140">
+      <c r="L38" s="142"/>
+      <c r="M38" s="143"/>
+      <c r="N38" s="143"/>
+      <c r="O38" s="144"/>
+      <c r="P38" s="142">
         <f>SUM(P23:P37)</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="183"/>
+      <c r="Q38" s="182"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="69"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="143"/>
-      <c r="K39" s="144" t="s">
+      <c r="A39" s="71"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="145"/>
+      <c r="K39" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="105"/>
-      <c r="M39" s="105"/>
-      <c r="N39" s="105"/>
-      <c r="O39" s="145"/>
-      <c r="P39" s="146">
-        <f>IF(I18=20,P38*9%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="184"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="147"/>
+      <c r="P39" s="148"/>
+      <c r="Q39" s="183"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="71"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="147"/>
-      <c r="K40" s="148" t="s">
+      <c r="A40" s="73"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
-      <c r="N40" s="149"/>
-      <c r="O40" s="150"/>
-      <c r="P40" s="129">
-        <f>IF(I18=20,P38*9%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="181"/>
-    </row>
-    <row r="41" ht="15.75" spans="1:17">
-      <c r="A41" s="71"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="147"/>
-      <c r="K41" s="151" t="s">
+      <c r="L40" s="151"/>
+      <c r="M40" s="151"/>
+      <c r="N40" s="151"/>
+      <c r="O40" s="152"/>
+      <c r="P40" s="131"/>
+      <c r="Q40" s="180"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="73"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="152">
-        <f>IF(I18=20,0,P38*18%)</f>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="185"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="154"/>
+      <c r="Q41" s="184"/>
     </row>
     <row r="42" ht="15.75" spans="1:17">
-      <c r="A42" s="73"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74"/>
-      <c r="J42" s="153"/>
-      <c r="K42" s="154" t="s">
+      <c r="A42" s="75"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="L42" s="155"/>
-      <c r="M42" s="155"/>
-      <c r="N42" s="155"/>
-      <c r="O42" s="156"/>
-      <c r="P42" s="157">
+      <c r="L42" s="157"/>
+      <c r="M42" s="157"/>
+      <c r="N42" s="157"/>
+      <c r="O42" s="158"/>
+      <c r="P42" s="159">
         <f>ROUND(P38+P39+P40+P41,0)</f>
         <v>0</v>
       </c>
-      <c r="Q42" s="186"/>
+      <c r="Q42" s="185"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="75" t="s">
+      <c r="A43" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="78" t="s">
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="I43" s="158"/>
-      <c r="J43" s="158"/>
-      <c r="K43" s="158"/>
-      <c r="L43" s="158"/>
-      <c r="M43" s="158"/>
-      <c r="N43" s="158"/>
-      <c r="O43" s="158"/>
-      <c r="P43" s="158"/>
-      <c r="Q43" s="187"/>
+      <c r="I43" s="160"/>
+      <c r="J43" s="160"/>
+      <c r="K43" s="160"/>
+      <c r="L43" s="160"/>
+      <c r="M43" s="160"/>
+      <c r="N43" s="160"/>
+      <c r="O43" s="160"/>
+      <c r="P43" s="160"/>
+      <c r="Q43" s="186"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="79"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="82" t="s">
+      <c r="A44" s="81"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="I44" s="159"/>
-      <c r="J44" s="159"/>
-      <c r="K44" s="159"/>
-      <c r="L44" s="159"/>
-      <c r="M44" s="159"/>
-      <c r="N44" s="159"/>
-      <c r="O44" s="159"/>
-      <c r="P44" s="159"/>
-      <c r="Q44" s="188"/>
+      <c r="I44" s="161"/>
+      <c r="J44" s="161"/>
+      <c r="K44" s="161"/>
+      <c r="L44" s="161"/>
+      <c r="M44" s="161"/>
+      <c r="N44" s="161"/>
+      <c r="O44" s="161"/>
+      <c r="P44" s="161"/>
+      <c r="Q44" s="187"/>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="79"/>
-      <c r="B45" s="80"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="82" t="s">
+      <c r="A45" s="81"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="I45" s="159"/>
-      <c r="J45" s="159"/>
-      <c r="K45" s="159"/>
-      <c r="L45" s="159"/>
-      <c r="M45" s="159"/>
-      <c r="N45" s="159"/>
-      <c r="O45" s="159"/>
-      <c r="P45" s="159"/>
-      <c r="Q45" s="188"/>
+      <c r="I45" s="161"/>
+      <c r="J45" s="161"/>
+      <c r="K45" s="161"/>
+      <c r="L45" s="161"/>
+      <c r="M45" s="161"/>
+      <c r="N45" s="161"/>
+      <c r="O45" s="161"/>
+      <c r="P45" s="161"/>
+      <c r="Q45" s="187"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="79"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="82" t="s">
+      <c r="A46" s="81"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="I46" s="159"/>
-      <c r="J46" s="159"/>
-      <c r="K46" s="159"/>
-      <c r="L46" s="159"/>
-      <c r="M46" s="159"/>
-      <c r="N46" s="159"/>
-      <c r="O46" s="159"/>
-      <c r="P46" s="159"/>
-      <c r="Q46" s="188"/>
+      <c r="I46" s="161"/>
+      <c r="J46" s="161"/>
+      <c r="K46" s="161"/>
+      <c r="L46" s="161"/>
+      <c r="M46" s="161"/>
+      <c r="N46" s="161"/>
+      <c r="O46" s="161"/>
+      <c r="P46" s="161"/>
+      <c r="Q46" s="187"/>
     </row>
     <row r="47" ht="15.75" spans="1:17">
-      <c r="A47" s="83"/>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="86" t="s">
+      <c r="A47" s="85"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="I47" s="160"/>
-      <c r="J47" s="160"/>
-      <c r="K47" s="160"/>
-      <c r="L47" s="160"/>
-      <c r="M47" s="160"/>
-      <c r="N47" s="160"/>
-      <c r="O47" s="160"/>
-      <c r="P47" s="160"/>
-      <c r="Q47" s="189"/>
+      <c r="I47" s="162"/>
+      <c r="J47" s="162"/>
+      <c r="K47" s="162"/>
+      <c r="L47" s="162"/>
+      <c r="M47" s="162"/>
+      <c r="N47" s="162"/>
+      <c r="O47" s="162"/>
+      <c r="P47" s="162"/>
+      <c r="Q47" s="188"/>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="87" t="s">
+      <c r="A48" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="88"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="90" t="s">
+      <c r="B48" s="90"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="91"/>
+      <c r="H48" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="I48" s="161"/>
-      <c r="J48" s="161"/>
-      <c r="K48" s="161"/>
-      <c r="L48" s="161"/>
-      <c r="M48" s="161"/>
-      <c r="N48" s="161"/>
-      <c r="O48" s="161"/>
-      <c r="P48" s="161"/>
-      <c r="Q48" s="190"/>
+      <c r="I48" s="163"/>
+      <c r="J48" s="163"/>
+      <c r="K48" s="163"/>
+      <c r="L48" s="163"/>
+      <c r="M48" s="163"/>
+      <c r="N48" s="163"/>
+      <c r="O48" s="163"/>
+      <c r="P48" s="163"/>
+      <c r="Q48" s="189"/>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49" s="91"/>
-      <c r="B49" s="92"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92"/>
-      <c r="G49" s="93"/>
-      <c r="H49" s="94"/>
-      <c r="I49" s="162"/>
-      <c r="J49" s="162"/>
-      <c r="K49" s="162"/>
-      <c r="L49" s="162"/>
-      <c r="M49" s="162"/>
-      <c r="N49" s="162"/>
-      <c r="O49" s="162"/>
-      <c r="P49" s="162"/>
-      <c r="Q49" s="191"/>
+      <c r="A49" s="93"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="95"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="164"/>
+      <c r="J49" s="164"/>
+      <c r="K49" s="164"/>
+      <c r="L49" s="164"/>
+      <c r="M49" s="164"/>
+      <c r="N49" s="164"/>
+      <c r="O49" s="164"/>
+      <c r="P49" s="164"/>
+      <c r="Q49" s="190"/>
     </row>
     <row r="50" spans="1:17">
-      <c r="A50" s="91"/>
-      <c r="B50" s="92"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
-      <c r="G50" s="93"/>
-      <c r="H50" s="94"/>
-      <c r="I50" s="162"/>
-      <c r="J50" s="162"/>
-      <c r="K50" s="162"/>
-      <c r="L50" s="162"/>
-      <c r="M50" s="162"/>
-      <c r="N50" s="162"/>
-      <c r="O50" s="162"/>
-      <c r="P50" s="162"/>
-      <c r="Q50" s="191"/>
+      <c r="A50" s="93"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="94"/>
+      <c r="G50" s="95"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="164"/>
+      <c r="J50" s="164"/>
+      <c r="K50" s="164"/>
+      <c r="L50" s="164"/>
+      <c r="M50" s="164"/>
+      <c r="N50" s="164"/>
+      <c r="O50" s="164"/>
+      <c r="P50" s="164"/>
+      <c r="Q50" s="190"/>
     </row>
     <row r="51" ht="15.75" spans="1:17">
-      <c r="A51" s="95"/>
-      <c r="B51" s="96"/>
-      <c r="C51" s="96"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="97"/>
-      <c r="H51" s="98" t="s">
+      <c r="A51" s="97"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="98"/>
+      <c r="F51" s="98"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="I51" s="163"/>
-      <c r="J51" s="163"/>
-      <c r="K51" s="163"/>
-      <c r="L51" s="163"/>
-      <c r="M51" s="163"/>
-      <c r="N51" s="163"/>
-      <c r="O51" s="163"/>
-      <c r="P51" s="163"/>
-      <c r="Q51" s="192"/>
+      <c r="I51" s="165"/>
+      <c r="J51" s="165"/>
+      <c r="K51" s="165"/>
+      <c r="L51" s="165"/>
+      <c r="M51" s="165"/>
+      <c r="N51" s="165"/>
+      <c r="O51" s="165"/>
+      <c r="P51" s="165"/>
+      <c r="Q51" s="191"/>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="99" t="s">
+      <c r="A52" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="100"/>
-      <c r="C52" s="100"/>
-      <c r="D52" s="100"/>
-      <c r="E52" s="100"/>
-      <c r="F52" s="100"/>
-      <c r="G52" s="100"/>
-      <c r="H52" s="100"/>
-      <c r="I52" s="100"/>
-      <c r="J52" s="100"/>
-      <c r="K52" s="100"/>
-      <c r="L52" s="100"/>
-      <c r="M52" s="100"/>
-      <c r="N52" s="100"/>
-      <c r="O52" s="100"/>
-      <c r="P52" s="100"/>
-      <c r="Q52" s="193"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="102"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="102"/>
+      <c r="K52" s="102"/>
+      <c r="L52" s="102"/>
+      <c r="M52" s="102"/>
+      <c r="N52" s="102"/>
+      <c r="O52" s="102"/>
+      <c r="P52" s="102"/>
+      <c r="Q52" s="192"/>
     </row>
     <row r="53" ht="15.75" spans="1:17">
-      <c r="A53" s="101" t="s">
+      <c r="A53" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="102"/>
-      <c r="C53" s="102"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
-      <c r="F53" s="102"/>
-      <c r="G53" s="102"/>
-      <c r="H53" s="102"/>
-      <c r="I53" s="102"/>
-      <c r="J53" s="102"/>
-      <c r="K53" s="102"/>
-      <c r="L53" s="102"/>
-      <c r="M53" s="102"/>
-      <c r="N53" s="102"/>
-      <c r="O53" s="102"/>
-      <c r="P53" s="102"/>
-      <c r="Q53" s="194"/>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="B53" s="104"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="104"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="104"/>
+      <c r="K53" s="104"/>
+      <c r="L53" s="104"/>
+      <c r="M53" s="104"/>
+      <c r="N53" s="104"/>
+      <c r="O53" s="104"/>
+      <c r="P53" s="104"/>
+      <c r="Q53" s="193"/>
+    </row>
+    <row r="54" ht="15.75" spans="1:17">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3637,18 +3628,2407 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="M55" s="105"/>
+      <c r="N55" s="105"/>
+      <c r="O55" s="105"/>
+      <c r="P55" s="105"/>
+      <c r="Q55" s="166"/>
+    </row>
+    <row r="56" ht="35.25" spans="1:17">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="167"/>
+    </row>
+    <row r="57" ht="15.75" spans="1:17">
+      <c r="A57" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="168"/>
+    </row>
+    <row r="58" ht="15.75" spans="1:17">
+      <c r="A58" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="169"/>
+    </row>
+    <row r="59" ht="16.5" spans="1:17">
+      <c r="A59" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="170"/>
+    </row>
+    <row r="60" ht="15.75" spans="1:17">
+      <c r="A60" s="12"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="171"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="172"/>
+    </row>
+    <row r="62" ht="15.75" spans="1:17">
+      <c r="A62" s="16"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="173"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="19"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="106"/>
+      <c r="J63" s="107" t="s">
+        <v>6</v>
+      </c>
+      <c r="K63" s="108"/>
+      <c r="L63" s="108"/>
+      <c r="M63" s="108"/>
+      <c r="N63" s="108"/>
+      <c r="O63" s="108"/>
+      <c r="P63" s="108"/>
+      <c r="Q63" s="174"/>
+    </row>
+    <row r="64" ht="15.75" spans="1:17">
+      <c r="A64" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="109"/>
+      <c r="J64" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="K64" s="111"/>
+      <c r="L64" s="111"/>
+      <c r="M64" s="112"/>
+      <c r="N64" s="112"/>
+      <c r="O64" s="112"/>
+      <c r="P64" s="112"/>
+      <c r="Q64" s="175"/>
+    </row>
+    <row r="65" ht="15.75" spans="1:17">
+      <c r="A65" s="24"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="113"/>
+      <c r="N65" s="113"/>
+      <c r="O65" s="113"/>
+      <c r="P65" s="113"/>
+      <c r="Q65" s="176"/>
+    </row>
+    <row r="66" ht="15.75" spans="1:17">
+      <c r="A66" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="114"/>
+      <c r="J66" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="114"/>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="29"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="115"/>
+      <c r="J67" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K67" s="29"/>
+      <c r="L67" s="20">
+        <f t="shared" ref="L67:L71" si="4">C67</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="106"/>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="32"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="116"/>
+      <c r="J68" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" s="32"/>
+      <c r="L68" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="33"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="33"/>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="116"/>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="34"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="117"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="117"/>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="38"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="118"/>
+      <c r="J70" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="K70" s="38"/>
+      <c r="L70" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="39"/>
+      <c r="N70" s="39"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="39"/>
+      <c r="Q70" s="118"/>
+    </row>
+    <row r="71" ht="15.75" spans="1:17">
+      <c r="A71" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="41"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="119"/>
+      <c r="J71" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" s="41"/>
+      <c r="L71" s="120">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="120"/>
+      <c r="N71" s="120"/>
+      <c r="O71" s="121"/>
+      <c r="P71" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q71" s="177">
+        <f>I71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" spans="1:17">
+      <c r="A72" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="46"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="46">
+        <f>C71</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="46"/>
+      <c r="M72" s="46"/>
+      <c r="N72" s="46"/>
+      <c r="O72" s="122"/>
+      <c r="P72" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q72" s="177">
+        <f>I71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" spans="1:17">
+      <c r="A73" s="12"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="171"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="49"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" s="49"/>
+      <c r="J74" s="50"/>
+      <c r="K74" s="123" t="s">
+        <v>22</v>
+      </c>
+      <c r="L74" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="M74" s="49"/>
+      <c r="N74" s="49"/>
+      <c r="O74" s="50"/>
+      <c r="P74" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q74" s="178"/>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="51"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="53"/>
+      <c r="J75" s="54"/>
+      <c r="K75" s="125"/>
+      <c r="L75" s="52"/>
+      <c r="M75" s="53"/>
+      <c r="N75" s="53"/>
+      <c r="O75" s="54"/>
+      <c r="P75" s="126"/>
+      <c r="Q75" s="179"/>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="55">
+        <v>1</v>
+      </c>
+      <c r="B76" s="56"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="58"/>
+      <c r="K76" s="127"/>
+      <c r="L76" s="128"/>
+      <c r="M76" s="129"/>
+      <c r="N76" s="129"/>
+      <c r="O76" s="130"/>
+      <c r="P76" s="131">
+        <f t="shared" ref="P76:P80" si="5">K76*L76</f>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="180"/>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="55">
+        <v>2</v>
+      </c>
+      <c r="B77" s="56"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="57"/>
+      <c r="F77" s="57"/>
+      <c r="G77" s="58"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="58"/>
+      <c r="K77" s="127"/>
+      <c r="L77" s="128"/>
+      <c r="M77" s="129"/>
+      <c r="N77" s="129"/>
+      <c r="O77" s="130"/>
+      <c r="P77" s="131">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="180"/>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="55">
+        <v>3</v>
+      </c>
+      <c r="B78" s="56"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="57"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="57"/>
+      <c r="G78" s="58"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="57"/>
+      <c r="J78" s="58"/>
+      <c r="K78" s="127"/>
+      <c r="L78" s="128"/>
+      <c r="M78" s="129"/>
+      <c r="N78" s="129"/>
+      <c r="O78" s="130"/>
+      <c r="P78" s="131">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q78" s="180"/>
+    </row>
+    <row r="79" ht="15.75" spans="1:17">
+      <c r="A79" s="59">
+        <v>4</v>
+      </c>
+      <c r="B79" s="56"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="58"/>
+      <c r="K79" s="127"/>
+      <c r="L79" s="128"/>
+      <c r="M79" s="129"/>
+      <c r="N79" s="129"/>
+      <c r="O79" s="130"/>
+      <c r="P79" s="131">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q79" s="180"/>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="60">
+        <v>5</v>
+      </c>
+      <c r="B80" s="56"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="58"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="57"/>
+      <c r="J80" s="58"/>
+      <c r="K80" s="127"/>
+      <c r="L80" s="128"/>
+      <c r="M80" s="129"/>
+      <c r="N80" s="129"/>
+      <c r="O80" s="130"/>
+      <c r="P80" s="131">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="180"/>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="55">
+        <v>6</v>
+      </c>
+      <c r="B81" s="56"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="58"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="58"/>
+      <c r="K81" s="127"/>
+      <c r="L81" s="128"/>
+      <c r="M81" s="129"/>
+      <c r="N81" s="129"/>
+      <c r="O81" s="130"/>
+      <c r="P81" s="131">
+        <f t="shared" ref="P81:P85" si="6">L81*K81</f>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="180"/>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="55">
+        <v>7</v>
+      </c>
+      <c r="B82" s="56"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="57"/>
+      <c r="J82" s="58"/>
+      <c r="K82" s="127"/>
+      <c r="L82" s="128"/>
+      <c r="M82" s="129"/>
+      <c r="N82" s="129"/>
+      <c r="O82" s="130"/>
+      <c r="P82" s="131">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="180"/>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="55">
+        <v>8</v>
+      </c>
+      <c r="B83" s="56"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="58"/>
+      <c r="K83" s="127"/>
+      <c r="L83" s="128"/>
+      <c r="M83" s="129"/>
+      <c r="N83" s="129"/>
+      <c r="O83" s="130"/>
+      <c r="P83" s="131">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q83" s="180"/>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="55">
+        <v>9</v>
+      </c>
+      <c r="B84" s="56"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="56"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="58"/>
+      <c r="K84" s="127"/>
+      <c r="L84" s="128"/>
+      <c r="M84" s="129"/>
+      <c r="N84" s="129"/>
+      <c r="O84" s="130"/>
+      <c r="P84" s="131">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q84" s="180"/>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="55">
+        <v>10</v>
+      </c>
+      <c r="B85" s="56"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="57"/>
+      <c r="E85" s="57"/>
+      <c r="F85" s="57"/>
+      <c r="G85" s="58"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="58"/>
+      <c r="K85" s="127"/>
+      <c r="L85" s="56"/>
+      <c r="M85" s="57"/>
+      <c r="N85" s="57"/>
+      <c r="O85" s="58"/>
+      <c r="P85" s="131">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q85" s="180"/>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="55">
+        <v>11</v>
+      </c>
+      <c r="B86" s="61"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="56"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="58"/>
+      <c r="K86" s="127"/>
+      <c r="L86" s="128"/>
+      <c r="M86" s="129"/>
+      <c r="N86" s="129"/>
+      <c r="O86" s="130"/>
+      <c r="P86" s="131">
+        <f t="shared" ref="P86:P90" si="7">K86*L86</f>
+        <v>0</v>
+      </c>
+      <c r="Q86" s="180"/>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="55">
+        <v>12</v>
+      </c>
+      <c r="B87" s="61"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="63"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="58"/>
+      <c r="K87" s="127"/>
+      <c r="L87" s="128"/>
+      <c r="M87" s="129"/>
+      <c r="N87" s="129"/>
+      <c r="O87" s="130"/>
+      <c r="P87" s="131">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q87" s="180"/>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="55">
+        <v>13</v>
+      </c>
+      <c r="B88" s="61"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="62"/>
+      <c r="E88" s="62"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="56"/>
+      <c r="I88" s="57"/>
+      <c r="J88" s="58"/>
+      <c r="K88" s="127"/>
+      <c r="L88" s="128"/>
+      <c r="M88" s="129"/>
+      <c r="N88" s="129"/>
+      <c r="O88" s="130"/>
+      <c r="P88" s="131">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q88" s="180"/>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="64">
+        <v>14</v>
+      </c>
+      <c r="B89" s="61"/>
+      <c r="C89" s="62"/>
+      <c r="D89" s="62"/>
+      <c r="E89" s="62"/>
+      <c r="F89" s="62"/>
+      <c r="G89" s="63"/>
+      <c r="H89" s="56"/>
+      <c r="I89" s="57"/>
+      <c r="J89" s="58"/>
+      <c r="K89" s="132"/>
+      <c r="L89" s="128"/>
+      <c r="M89" s="129"/>
+      <c r="N89" s="129"/>
+      <c r="O89" s="130"/>
+      <c r="P89" s="131">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q89" s="180"/>
+    </row>
+    <row r="90" ht="15.75" spans="1:17">
+      <c r="A90" s="59">
+        <v>15</v>
+      </c>
+      <c r="B90" s="65"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="67"/>
+      <c r="H90" s="68"/>
+      <c r="I90" s="133"/>
+      <c r="J90" s="134"/>
+      <c r="K90" s="135"/>
+      <c r="L90" s="136"/>
+      <c r="M90" s="137"/>
+      <c r="N90" s="137"/>
+      <c r="O90" s="138"/>
+      <c r="P90" s="139">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="181"/>
+    </row>
+    <row r="91" ht="21" spans="1:17">
+      <c r="A91" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="70"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="70"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="70"/>
+      <c r="H91" s="70"/>
+      <c r="I91" s="70"/>
+      <c r="J91" s="140"/>
+      <c r="K91" s="141">
+        <f>SUM(K76:K90)</f>
+        <v>0</v>
+      </c>
+      <c r="L91" s="142"/>
+      <c r="M91" s="143"/>
+      <c r="N91" s="143"/>
+      <c r="O91" s="144"/>
+      <c r="P91" s="142">
+        <f>SUM(P76:P90)</f>
+        <v>0</v>
+      </c>
+      <c r="Q91" s="182"/>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="71"/>
+      <c r="B92" s="72"/>
+      <c r="C92" s="72"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="72"/>
+      <c r="H92" s="72"/>
+      <c r="I92" s="72"/>
+      <c r="J92" s="145"/>
+      <c r="K92" s="146" t="s">
+        <v>25</v>
+      </c>
+      <c r="L92" s="30"/>
+      <c r="M92" s="30"/>
+      <c r="N92" s="30"/>
+      <c r="O92" s="147"/>
+      <c r="P92" s="148">
+        <f>P39</f>
+        <v>0</v>
+      </c>
+      <c r="Q92" s="183"/>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="73"/>
+      <c r="B93" s="74"/>
+      <c r="C93" s="74"/>
+      <c r="D93" s="74"/>
+      <c r="E93" s="74"/>
+      <c r="F93" s="74"/>
+      <c r="G93" s="74"/>
+      <c r="H93" s="74"/>
+      <c r="I93" s="74"/>
+      <c r="J93" s="149"/>
+      <c r="K93" s="150" t="s">
+        <v>26</v>
+      </c>
+      <c r="L93" s="151"/>
+      <c r="M93" s="151"/>
+      <c r="N93" s="151"/>
+      <c r="O93" s="152"/>
+      <c r="P93" s="131">
+        <f>P40</f>
+        <v>0</v>
+      </c>
+      <c r="Q93" s="180"/>
+    </row>
+    <row r="94" ht="15.75" spans="1:17">
+      <c r="A94" s="73"/>
+      <c r="B94" s="74"/>
+      <c r="C94" s="74"/>
+      <c r="D94" s="74"/>
+      <c r="E94" s="74"/>
+      <c r="F94" s="74"/>
+      <c r="G94" s="74"/>
+      <c r="H94" s="74"/>
+      <c r="I94" s="74"/>
+      <c r="J94" s="149"/>
+      <c r="K94" s="153" t="s">
+        <v>27</v>
+      </c>
+      <c r="L94" s="42"/>
+      <c r="M94" s="42"/>
+      <c r="N94" s="42"/>
+      <c r="O94" s="43"/>
+      <c r="P94" s="154">
+        <f>P41</f>
+        <v>0</v>
+      </c>
+      <c r="Q94" s="184"/>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="75"/>
+      <c r="B95" s="76"/>
+      <c r="C95" s="76"/>
+      <c r="D95" s="76"/>
+      <c r="E95" s="76"/>
+      <c r="F95" s="76"/>
+      <c r="G95" s="76"/>
+      <c r="H95" s="76"/>
+      <c r="I95" s="76"/>
+      <c r="J95" s="155"/>
+      <c r="K95" s="156" t="s">
+        <v>28</v>
+      </c>
+      <c r="L95" s="157"/>
+      <c r="M95" s="157"/>
+      <c r="N95" s="157"/>
+      <c r="O95" s="158"/>
+      <c r="P95" s="159">
+        <f>ROUND(P91+P92+P93+P94,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q95" s="185"/>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" s="78"/>
+      <c r="C96" s="78"/>
+      <c r="D96" s="78"/>
+      <c r="E96" s="78"/>
+      <c r="F96" s="78"/>
+      <c r="G96" s="79"/>
+      <c r="H96" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="I96" s="160"/>
+      <c r="J96" s="160"/>
+      <c r="K96" s="160"/>
+      <c r="L96" s="160"/>
+      <c r="M96" s="160"/>
+      <c r="N96" s="160"/>
+      <c r="O96" s="160"/>
+      <c r="P96" s="160"/>
+      <c r="Q96" s="186"/>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="81"/>
+      <c r="B97" s="82"/>
+      <c r="C97" s="82"/>
+      <c r="D97" s="82"/>
+      <c r="E97" s="82"/>
+      <c r="F97" s="82"/>
+      <c r="G97" s="83"/>
+      <c r="H97" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="I97" s="161"/>
+      <c r="J97" s="161"/>
+      <c r="K97" s="161"/>
+      <c r="L97" s="161"/>
+      <c r="M97" s="161"/>
+      <c r="N97" s="161"/>
+      <c r="O97" s="161"/>
+      <c r="P97" s="161"/>
+      <c r="Q97" s="187"/>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" s="81"/>
+      <c r="B98" s="82"/>
+      <c r="C98" s="82"/>
+      <c r="D98" s="82"/>
+      <c r="E98" s="82"/>
+      <c r="F98" s="82"/>
+      <c r="G98" s="83"/>
+      <c r="H98" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="I98" s="161"/>
+      <c r="J98" s="161"/>
+      <c r="K98" s="161"/>
+      <c r="L98" s="161"/>
+      <c r="M98" s="161"/>
+      <c r="N98" s="161"/>
+      <c r="O98" s="161"/>
+      <c r="P98" s="161"/>
+      <c r="Q98" s="187"/>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="81"/>
+      <c r="B99" s="82"/>
+      <c r="C99" s="82"/>
+      <c r="D99" s="82"/>
+      <c r="E99" s="82"/>
+      <c r="F99" s="82"/>
+      <c r="G99" s="83"/>
+      <c r="H99" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="I99" s="161"/>
+      <c r="J99" s="161"/>
+      <c r="K99" s="161"/>
+      <c r="L99" s="161"/>
+      <c r="M99" s="161"/>
+      <c r="N99" s="161"/>
+      <c r="O99" s="161"/>
+      <c r="P99" s="161"/>
+      <c r="Q99" s="187"/>
+    </row>
+    <row r="100" ht="15.75" spans="1:17">
+      <c r="A100" s="85"/>
+      <c r="B100" s="86"/>
+      <c r="C100" s="86"/>
+      <c r="D100" s="86"/>
+      <c r="E100" s="86"/>
+      <c r="F100" s="86"/>
+      <c r="G100" s="87"/>
+      <c r="H100" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="I100" s="162"/>
+      <c r="J100" s="162"/>
+      <c r="K100" s="162"/>
+      <c r="L100" s="162"/>
+      <c r="M100" s="162"/>
+      <c r="N100" s="162"/>
+      <c r="O100" s="162"/>
+      <c r="P100" s="162"/>
+      <c r="Q100" s="188"/>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="B101" s="90"/>
+      <c r="C101" s="90"/>
+      <c r="D101" s="90"/>
+      <c r="E101" s="90"/>
+      <c r="F101" s="90"/>
+      <c r="G101" s="91"/>
+      <c r="H101" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="I101" s="163"/>
+      <c r="J101" s="163"/>
+      <c r="K101" s="163"/>
+      <c r="L101" s="163"/>
+      <c r="M101" s="163"/>
+      <c r="N101" s="163"/>
+      <c r="O101" s="163"/>
+      <c r="P101" s="163"/>
+      <c r="Q101" s="189"/>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" s="93"/>
+      <c r="B102" s="94"/>
+      <c r="C102" s="94"/>
+      <c r="D102" s="94"/>
+      <c r="E102" s="94"/>
+      <c r="F102" s="94"/>
+      <c r="G102" s="95"/>
+      <c r="H102" s="96"/>
+      <c r="I102" s="164"/>
+      <c r="J102" s="164"/>
+      <c r="K102" s="164"/>
+      <c r="L102" s="164"/>
+      <c r="M102" s="164"/>
+      <c r="N102" s="164"/>
+      <c r="O102" s="164"/>
+      <c r="P102" s="164"/>
+      <c r="Q102" s="190"/>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" s="93"/>
+      <c r="B103" s="94"/>
+      <c r="C103" s="94"/>
+      <c r="D103" s="94"/>
+      <c r="E103" s="94"/>
+      <c r="F103" s="94"/>
+      <c r="G103" s="95"/>
+      <c r="H103" s="96"/>
+      <c r="I103" s="164"/>
+      <c r="J103" s="164"/>
+      <c r="K103" s="164"/>
+      <c r="L103" s="164"/>
+      <c r="M103" s="164"/>
+      <c r="N103" s="164"/>
+      <c r="O103" s="164"/>
+      <c r="P103" s="164"/>
+      <c r="Q103" s="190"/>
+    </row>
+    <row r="104" ht="15.75" spans="1:17">
+      <c r="A104" s="97"/>
+      <c r="B104" s="98"/>
+      <c r="C104" s="98"/>
+      <c r="D104" s="98"/>
+      <c r="E104" s="98"/>
+      <c r="F104" s="98"/>
+      <c r="G104" s="99"/>
+      <c r="H104" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="I104" s="165"/>
+      <c r="J104" s="165"/>
+      <c r="K104" s="165"/>
+      <c r="L104" s="165"/>
+      <c r="M104" s="165"/>
+      <c r="N104" s="165"/>
+      <c r="O104" s="165"/>
+      <c r="P104" s="165"/>
+      <c r="Q104" s="191"/>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="A105" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="B105" s="102"/>
+      <c r="C105" s="102"/>
+      <c r="D105" s="102"/>
+      <c r="E105" s="102"/>
+      <c r="F105" s="102"/>
+      <c r="G105" s="102"/>
+      <c r="H105" s="102"/>
+      <c r="I105" s="102"/>
+      <c r="J105" s="102"/>
+      <c r="K105" s="102"/>
+      <c r="L105" s="102"/>
+      <c r="M105" s="102"/>
+      <c r="N105" s="102"/>
+      <c r="O105" s="102"/>
+      <c r="P105" s="102"/>
+      <c r="Q105" s="192"/>
+    </row>
+    <row r="106" ht="15.75" spans="1:17">
+      <c r="A106" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="B106" s="104"/>
+      <c r="C106" s="104"/>
+      <c r="D106" s="104"/>
+      <c r="E106" s="104"/>
+      <c r="F106" s="104"/>
+      <c r="G106" s="104"/>
+      <c r="H106" s="104"/>
+      <c r="I106" s="104"/>
+      <c r="J106" s="104"/>
+      <c r="K106" s="104"/>
+      <c r="L106" s="104"/>
+      <c r="M106" s="104"/>
+      <c r="N106" s="104"/>
+      <c r="O106" s="104"/>
+      <c r="P106" s="104"/>
+      <c r="Q106" s="193"/>
+    </row>
+    <row r="107" ht="15.75"/>
+    <row r="108" spans="1:17">
+      <c r="A108" s="194"/>
+      <c r="B108" s="195"/>
+      <c r="C108" s="195"/>
+      <c r="D108" s="195"/>
+      <c r="E108" s="195"/>
+      <c r="F108" s="195"/>
+      <c r="G108" s="195"/>
+      <c r="H108" s="195"/>
+      <c r="I108" s="195"/>
+      <c r="J108" s="195"/>
+      <c r="K108" s="195"/>
+      <c r="L108" s="196" t="s">
+        <v>41</v>
+      </c>
+      <c r="M108" s="196"/>
+      <c r="N108" s="196"/>
+      <c r="O108" s="196"/>
+      <c r="P108" s="196"/>
+      <c r="Q108" s="197"/>
+    </row>
+    <row r="109" ht="35.25" spans="1:17">
+      <c r="A109" s="4"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="167"/>
+    </row>
+    <row r="110" ht="15.75" spans="1:17">
+      <c r="A110" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="7"/>
+      <c r="O110" s="7"/>
+      <c r="P110" s="7"/>
+      <c r="Q110" s="168"/>
+    </row>
+    <row r="111" ht="15.75" spans="1:17">
+      <c r="A111" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="9"/>
+      <c r="P111" s="9"/>
+      <c r="Q111" s="169"/>
+    </row>
+    <row r="112" ht="16.5" spans="1:17">
+      <c r="A112" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="11"/>
+      <c r="O112" s="11"/>
+      <c r="P112" s="11"/>
+      <c r="Q112" s="170"/>
+    </row>
+    <row r="113" ht="15.75" spans="1:17">
+      <c r="A113" s="12"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13"/>
+      <c r="J113" s="13"/>
+      <c r="K113" s="13"/>
+      <c r="L113" s="13"/>
+      <c r="M113" s="13"/>
+      <c r="N113" s="13"/>
+      <c r="O113" s="13"/>
+      <c r="P113" s="13"/>
+      <c r="Q113" s="171"/>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="A114" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="15"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="15"/>
+      <c r="L114" s="15"/>
+      <c r="M114" s="15"/>
+      <c r="N114" s="15"/>
+      <c r="O114" s="15"/>
+      <c r="P114" s="15"/>
+      <c r="Q114" s="172"/>
+    </row>
+    <row r="115" ht="15.75" spans="1:17">
+      <c r="A115" s="16"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="173"/>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="A116" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="19"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="106"/>
+      <c r="J116" s="107" t="s">
+        <v>6</v>
+      </c>
+      <c r="K116" s="108"/>
+      <c r="L116" s="108"/>
+      <c r="M116" s="108"/>
+      <c r="N116" s="108"/>
+      <c r="O116" s="108"/>
+      <c r="P116" s="108"/>
+      <c r="Q116" s="174"/>
+    </row>
+    <row r="117" ht="15.75" spans="1:17">
+      <c r="A117" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" s="22"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="23"/>
+      <c r="H117" s="23"/>
+      <c r="I117" s="109"/>
+      <c r="J117" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="K117" s="111"/>
+      <c r="L117" s="111"/>
+      <c r="M117" s="112"/>
+      <c r="N117" s="112"/>
+      <c r="O117" s="112"/>
+      <c r="P117" s="112"/>
+      <c r="Q117" s="175"/>
+    </row>
+    <row r="118" ht="15.75" spans="1:17">
+      <c r="A118" s="24"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="25"/>
+      <c r="K118" s="25"/>
+      <c r="L118" s="25"/>
+      <c r="M118" s="113"/>
+      <c r="N118" s="113"/>
+      <c r="O118" s="113"/>
+      <c r="P118" s="113"/>
+      <c r="Q118" s="176"/>
+    </row>
+    <row r="119" ht="15.75" spans="1:17">
+      <c r="A119" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="27"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="114"/>
+      <c r="J119" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K119" s="27"/>
+      <c r="L119" s="27"/>
+      <c r="M119" s="27"/>
+      <c r="N119" s="27"/>
+      <c r="O119" s="27"/>
+      <c r="P119" s="27"/>
+      <c r="Q119" s="114"/>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="A120" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" s="29"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="30"/>
+      <c r="G120" s="30"/>
+      <c r="H120" s="30"/>
+      <c r="I120" s="115"/>
+      <c r="J120" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K120" s="29"/>
+      <c r="L120" s="20">
+        <f t="shared" ref="L120:L124" si="8">C120</f>
+        <v>0</v>
+      </c>
+      <c r="M120" s="20"/>
+      <c r="N120" s="20"/>
+      <c r="O120" s="20"/>
+      <c r="P120" s="20"/>
+      <c r="Q120" s="106"/>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="A121" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" s="32"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="33"/>
+      <c r="G121" s="33"/>
+      <c r="H121" s="33"/>
+      <c r="I121" s="116"/>
+      <c r="J121" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K121" s="32"/>
+      <c r="L121" s="33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M121" s="33"/>
+      <c r="N121" s="33"/>
+      <c r="O121" s="33"/>
+      <c r="P121" s="33"/>
+      <c r="Q121" s="116"/>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="A122" s="34"/>
+      <c r="B122" s="35"/>
+      <c r="C122" s="36"/>
+      <c r="D122" s="36"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="36"/>
+      <c r="G122" s="36"/>
+      <c r="H122" s="36"/>
+      <c r="I122" s="117"/>
+      <c r="J122" s="34"/>
+      <c r="K122" s="35"/>
+      <c r="L122" s="36"/>
+      <c r="M122" s="36"/>
+      <c r="N122" s="36"/>
+      <c r="O122" s="36"/>
+      <c r="P122" s="36"/>
+      <c r="Q122" s="117"/>
+    </row>
+    <row r="123" spans="1:17">
+      <c r="A123" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" s="38"/>
+      <c r="C123" s="39"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="39"/>
+      <c r="F123" s="39"/>
+      <c r="G123" s="39"/>
+      <c r="H123" s="39"/>
+      <c r="I123" s="118"/>
+      <c r="J123" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="K123" s="38"/>
+      <c r="L123" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M123" s="39"/>
+      <c r="N123" s="39"/>
+      <c r="O123" s="39"/>
+      <c r="P123" s="39"/>
+      <c r="Q123" s="118"/>
+    </row>
+    <row r="124" ht="15.75" spans="1:17">
+      <c r="A124" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B124" s="41"/>
+      <c r="C124" s="42"/>
+      <c r="D124" s="42"/>
+      <c r="E124" s="42"/>
+      <c r="F124" s="42"/>
+      <c r="G124" s="43"/>
+      <c r="H124" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I124" s="119"/>
+      <c r="J124" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K124" s="41"/>
+      <c r="L124" s="120">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M124" s="120"/>
+      <c r="N124" s="120"/>
+      <c r="O124" s="121"/>
+      <c r="P124" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q124" s="177">
+        <f>I124</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" spans="1:17">
+      <c r="A125" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B125" s="46"/>
+      <c r="C125" s="46"/>
+      <c r="D125" s="46">
+        <f>C124</f>
+        <v>0</v>
+      </c>
+      <c r="E125" s="46"/>
+      <c r="F125" s="46"/>
+      <c r="G125" s="46"/>
+      <c r="H125" s="46"/>
+      <c r="I125" s="46"/>
+      <c r="J125" s="46"/>
+      <c r="K125" s="46"/>
+      <c r="L125" s="46"/>
+      <c r="M125" s="46"/>
+      <c r="N125" s="46"/>
+      <c r="O125" s="122"/>
+      <c r="P125" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q125" s="177">
+        <f>I124</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" spans="1:17">
+      <c r="A126" s="12"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
+      <c r="K126" s="13"/>
+      <c r="L126" s="13"/>
+      <c r="M126" s="13"/>
+      <c r="N126" s="13"/>
+      <c r="O126" s="13"/>
+      <c r="P126" s="13"/>
+      <c r="Q126" s="171"/>
+    </row>
+    <row r="127" spans="1:17">
+      <c r="A127" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127" s="49"/>
+      <c r="D127" s="49"/>
+      <c r="E127" s="49"/>
+      <c r="F127" s="49"/>
+      <c r="G127" s="50"/>
+      <c r="H127" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I127" s="49"/>
+      <c r="J127" s="50"/>
+      <c r="K127" s="123" t="s">
+        <v>22</v>
+      </c>
+      <c r="L127" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="M127" s="49"/>
+      <c r="N127" s="49"/>
+      <c r="O127" s="50"/>
+      <c r="P127" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q127" s="178"/>
+    </row>
+    <row r="128" spans="1:17">
+      <c r="A128" s="51"/>
+      <c r="B128" s="52"/>
+      <c r="C128" s="53"/>
+      <c r="D128" s="53"/>
+      <c r="E128" s="53"/>
+      <c r="F128" s="53"/>
+      <c r="G128" s="54"/>
+      <c r="H128" s="52"/>
+      <c r="I128" s="53"/>
+      <c r="J128" s="54"/>
+      <c r="K128" s="125"/>
+      <c r="L128" s="52"/>
+      <c r="M128" s="53"/>
+      <c r="N128" s="53"/>
+      <c r="O128" s="54"/>
+      <c r="P128" s="126"/>
+      <c r="Q128" s="179"/>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="A129" s="55">
+        <v>1</v>
+      </c>
+      <c r="B129" s="56"/>
+      <c r="C129" s="57"/>
+      <c r="D129" s="57"/>
+      <c r="E129" s="57"/>
+      <c r="F129" s="57"/>
+      <c r="G129" s="58"/>
+      <c r="H129" s="56"/>
+      <c r="I129" s="57"/>
+      <c r="J129" s="58"/>
+      <c r="K129" s="127"/>
+      <c r="L129" s="128"/>
+      <c r="M129" s="129"/>
+      <c r="N129" s="129"/>
+      <c r="O129" s="130"/>
+      <c r="P129" s="131">
+        <f t="shared" ref="P129:P133" si="9">K129*L129</f>
+        <v>0</v>
+      </c>
+      <c r="Q129" s="180"/>
+    </row>
+    <row r="130" spans="1:17">
+      <c r="A130" s="55">
+        <v>2</v>
+      </c>
+      <c r="B130" s="56"/>
+      <c r="C130" s="57"/>
+      <c r="D130" s="57"/>
+      <c r="E130" s="57"/>
+      <c r="F130" s="57"/>
+      <c r="G130" s="58"/>
+      <c r="H130" s="56"/>
+      <c r="I130" s="57"/>
+      <c r="J130" s="58"/>
+      <c r="K130" s="127"/>
+      <c r="L130" s="128"/>
+      <c r="M130" s="129"/>
+      <c r="N130" s="129"/>
+      <c r="O130" s="130"/>
+      <c r="P130" s="131">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q130" s="180"/>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="A131" s="55">
+        <v>3</v>
+      </c>
+      <c r="B131" s="56"/>
+      <c r="C131" s="57"/>
+      <c r="D131" s="57"/>
+      <c r="E131" s="57"/>
+      <c r="F131" s="57"/>
+      <c r="G131" s="58"/>
+      <c r="H131" s="56"/>
+      <c r="I131" s="57"/>
+      <c r="J131" s="58"/>
+      <c r="K131" s="127"/>
+      <c r="L131" s="128"/>
+      <c r="M131" s="129"/>
+      <c r="N131" s="129"/>
+      <c r="O131" s="130"/>
+      <c r="P131" s="131">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q131" s="180"/>
+    </row>
+    <row r="132" ht="15.75" spans="1:17">
+      <c r="A132" s="59">
+        <v>4</v>
+      </c>
+      <c r="B132" s="56"/>
+      <c r="C132" s="57"/>
+      <c r="D132" s="57"/>
+      <c r="E132" s="57"/>
+      <c r="F132" s="57"/>
+      <c r="G132" s="58"/>
+      <c r="H132" s="56"/>
+      <c r="I132" s="57"/>
+      <c r="J132" s="58"/>
+      <c r="K132" s="127"/>
+      <c r="L132" s="128"/>
+      <c r="M132" s="129"/>
+      <c r="N132" s="129"/>
+      <c r="O132" s="130"/>
+      <c r="P132" s="131">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q132" s="180"/>
+    </row>
+    <row r="133" spans="1:17">
+      <c r="A133" s="60">
+        <v>5</v>
+      </c>
+      <c r="B133" s="56"/>
+      <c r="C133" s="57"/>
+      <c r="D133" s="57"/>
+      <c r="E133" s="57"/>
+      <c r="F133" s="57"/>
+      <c r="G133" s="58"/>
+      <c r="H133" s="56"/>
+      <c r="I133" s="57"/>
+      <c r="J133" s="58"/>
+      <c r="K133" s="127"/>
+      <c r="L133" s="128"/>
+      <c r="M133" s="129"/>
+      <c r="N133" s="129"/>
+      <c r="O133" s="130"/>
+      <c r="P133" s="131">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q133" s="180"/>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="A134" s="55">
+        <v>6</v>
+      </c>
+      <c r="B134" s="56"/>
+      <c r="C134" s="57"/>
+      <c r="D134" s="57"/>
+      <c r="E134" s="57"/>
+      <c r="F134" s="57"/>
+      <c r="G134" s="58"/>
+      <c r="H134" s="56"/>
+      <c r="I134" s="57"/>
+      <c r="J134" s="58"/>
+      <c r="K134" s="127"/>
+      <c r="L134" s="128"/>
+      <c r="M134" s="129"/>
+      <c r="N134" s="129"/>
+      <c r="O134" s="130"/>
+      <c r="P134" s="131">
+        <f t="shared" ref="P134:P138" si="10">L134*K134</f>
+        <v>0</v>
+      </c>
+      <c r="Q134" s="180"/>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="A135" s="55">
+        <v>7</v>
+      </c>
+      <c r="B135" s="56"/>
+      <c r="C135" s="57"/>
+      <c r="D135" s="57"/>
+      <c r="E135" s="57"/>
+      <c r="F135" s="57"/>
+      <c r="G135" s="58"/>
+      <c r="H135" s="56"/>
+      <c r="I135" s="57"/>
+      <c r="J135" s="58"/>
+      <c r="K135" s="127"/>
+      <c r="L135" s="128"/>
+      <c r="M135" s="129"/>
+      <c r="N135" s="129"/>
+      <c r="O135" s="130"/>
+      <c r="P135" s="131">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q135" s="180"/>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="A136" s="55">
+        <v>8</v>
+      </c>
+      <c r="B136" s="56"/>
+      <c r="C136" s="57"/>
+      <c r="D136" s="57"/>
+      <c r="E136" s="57"/>
+      <c r="F136" s="57"/>
+      <c r="G136" s="58"/>
+      <c r="H136" s="56"/>
+      <c r="I136" s="57"/>
+      <c r="J136" s="58"/>
+      <c r="K136" s="127"/>
+      <c r="L136" s="128"/>
+      <c r="M136" s="129"/>
+      <c r="N136" s="129"/>
+      <c r="O136" s="130"/>
+      <c r="P136" s="131">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q136" s="180"/>
+    </row>
+    <row r="137" spans="1:17">
+      <c r="A137" s="55">
+        <v>9</v>
+      </c>
+      <c r="B137" s="56"/>
+      <c r="C137" s="57"/>
+      <c r="D137" s="57"/>
+      <c r="E137" s="57"/>
+      <c r="F137" s="57"/>
+      <c r="G137" s="58"/>
+      <c r="H137" s="56"/>
+      <c r="I137" s="57"/>
+      <c r="J137" s="58"/>
+      <c r="K137" s="127"/>
+      <c r="L137" s="128"/>
+      <c r="M137" s="129"/>
+      <c r="N137" s="129"/>
+      <c r="O137" s="130"/>
+      <c r="P137" s="131">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q137" s="180"/>
+    </row>
+    <row r="138" spans="1:17">
+      <c r="A138" s="55">
+        <v>10</v>
+      </c>
+      <c r="B138" s="56"/>
+      <c r="C138" s="57"/>
+      <c r="D138" s="57"/>
+      <c r="E138" s="57"/>
+      <c r="F138" s="57"/>
+      <c r="G138" s="58"/>
+      <c r="H138" s="56"/>
+      <c r="I138" s="57"/>
+      <c r="J138" s="58"/>
+      <c r="K138" s="127"/>
+      <c r="L138" s="56"/>
+      <c r="M138" s="57"/>
+      <c r="N138" s="57"/>
+      <c r="O138" s="58"/>
+      <c r="P138" s="131">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q138" s="180"/>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="A139" s="55">
+        <v>11</v>
+      </c>
+      <c r="B139" s="61"/>
+      <c r="C139" s="62"/>
+      <c r="D139" s="62"/>
+      <c r="E139" s="62"/>
+      <c r="F139" s="62"/>
+      <c r="G139" s="63"/>
+      <c r="H139" s="56"/>
+      <c r="I139" s="57"/>
+      <c r="J139" s="58"/>
+      <c r="K139" s="127"/>
+      <c r="L139" s="128"/>
+      <c r="M139" s="129"/>
+      <c r="N139" s="129"/>
+      <c r="O139" s="130"/>
+      <c r="P139" s="131">
+        <f t="shared" ref="P139:P143" si="11">K139*L139</f>
+        <v>0</v>
+      </c>
+      <c r="Q139" s="180"/>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="A140" s="55">
+        <v>12</v>
+      </c>
+      <c r="B140" s="61"/>
+      <c r="C140" s="62"/>
+      <c r="D140" s="62"/>
+      <c r="E140" s="62"/>
+      <c r="F140" s="62"/>
+      <c r="G140" s="63"/>
+      <c r="H140" s="56"/>
+      <c r="I140" s="57"/>
+      <c r="J140" s="58"/>
+      <c r="K140" s="127"/>
+      <c r="L140" s="128"/>
+      <c r="M140" s="129"/>
+      <c r="N140" s="129"/>
+      <c r="O140" s="130"/>
+      <c r="P140" s="131">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q140" s="180"/>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="A141" s="55">
+        <v>13</v>
+      </c>
+      <c r="B141" s="61"/>
+      <c r="C141" s="62"/>
+      <c r="D141" s="62"/>
+      <c r="E141" s="62"/>
+      <c r="F141" s="62"/>
+      <c r="G141" s="63"/>
+      <c r="H141" s="56"/>
+      <c r="I141" s="57"/>
+      <c r="J141" s="58"/>
+      <c r="K141" s="127"/>
+      <c r="L141" s="128"/>
+      <c r="M141" s="129"/>
+      <c r="N141" s="129"/>
+      <c r="O141" s="130"/>
+      <c r="P141" s="131">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q141" s="180"/>
+    </row>
+    <row r="142" spans="1:17">
+      <c r="A142" s="64">
+        <v>14</v>
+      </c>
+      <c r="B142" s="61"/>
+      <c r="C142" s="62"/>
+      <c r="D142" s="62"/>
+      <c r="E142" s="62"/>
+      <c r="F142" s="62"/>
+      <c r="G142" s="63"/>
+      <c r="H142" s="56"/>
+      <c r="I142" s="57"/>
+      <c r="J142" s="58"/>
+      <c r="K142" s="132"/>
+      <c r="L142" s="128"/>
+      <c r="M142" s="129"/>
+      <c r="N142" s="129"/>
+      <c r="O142" s="130"/>
+      <c r="P142" s="131">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q142" s="180"/>
+    </row>
+    <row r="143" ht="15.75" spans="1:17">
+      <c r="A143" s="59">
+        <v>15</v>
+      </c>
+      <c r="B143" s="65"/>
+      <c r="C143" s="66"/>
+      <c r="D143" s="66"/>
+      <c r="E143" s="66"/>
+      <c r="F143" s="66"/>
+      <c r="G143" s="67"/>
+      <c r="H143" s="68"/>
+      <c r="I143" s="133"/>
+      <c r="J143" s="134"/>
+      <c r="K143" s="135"/>
+      <c r="L143" s="136"/>
+      <c r="M143" s="137"/>
+      <c r="N143" s="137"/>
+      <c r="O143" s="138"/>
+      <c r="P143" s="139">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q143" s="181"/>
+    </row>
+    <row r="144" ht="21" spans="1:17">
+      <c r="A144" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144" s="70"/>
+      <c r="C144" s="70"/>
+      <c r="D144" s="70"/>
+      <c r="E144" s="70"/>
+      <c r="F144" s="70"/>
+      <c r="G144" s="70"/>
+      <c r="H144" s="70"/>
+      <c r="I144" s="70"/>
+      <c r="J144" s="140"/>
+      <c r="K144" s="141">
+        <f>SUM(K129:K143)</f>
+        <v>0</v>
+      </c>
+      <c r="L144" s="142"/>
+      <c r="M144" s="143"/>
+      <c r="N144" s="143"/>
+      <c r="O144" s="144"/>
+      <c r="P144" s="142">
+        <f>SUM(P129:P143)</f>
+        <v>0</v>
+      </c>
+      <c r="Q144" s="182"/>
+    </row>
+    <row r="145" spans="1:17">
+      <c r="A145" s="71"/>
+      <c r="B145" s="72"/>
+      <c r="C145" s="72"/>
+      <c r="D145" s="72"/>
+      <c r="E145" s="72"/>
+      <c r="F145" s="72"/>
+      <c r="G145" s="72"/>
+      <c r="H145" s="72"/>
+      <c r="I145" s="72"/>
+      <c r="J145" s="145"/>
+      <c r="K145" s="146" t="s">
+        <v>25</v>
+      </c>
+      <c r="L145" s="30"/>
+      <c r="M145" s="30"/>
+      <c r="N145" s="30"/>
+      <c r="O145" s="147"/>
+      <c r="P145" s="148">
+        <f>P39</f>
+        <v>0</v>
+      </c>
+      <c r="Q145" s="183"/>
+    </row>
+    <row r="146" spans="1:17">
+      <c r="A146" s="73"/>
+      <c r="B146" s="74"/>
+      <c r="C146" s="74"/>
+      <c r="D146" s="74"/>
+      <c r="E146" s="74"/>
+      <c r="F146" s="74"/>
+      <c r="G146" s="74"/>
+      <c r="H146" s="74"/>
+      <c r="I146" s="74"/>
+      <c r="J146" s="149"/>
+      <c r="K146" s="150" t="s">
+        <v>26</v>
+      </c>
+      <c r="L146" s="151"/>
+      <c r="M146" s="151"/>
+      <c r="N146" s="151"/>
+      <c r="O146" s="152"/>
+      <c r="P146" s="131">
+        <f>P40</f>
+        <v>0</v>
+      </c>
+      <c r="Q146" s="180"/>
+    </row>
+    <row r="147" ht="15.75" spans="1:17">
+      <c r="A147" s="73"/>
+      <c r="B147" s="74"/>
+      <c r="C147" s="74"/>
+      <c r="D147" s="74"/>
+      <c r="E147" s="74"/>
+      <c r="F147" s="74"/>
+      <c r="G147" s="74"/>
+      <c r="H147" s="74"/>
+      <c r="I147" s="74"/>
+      <c r="J147" s="149"/>
+      <c r="K147" s="153" t="s">
+        <v>27</v>
+      </c>
+      <c r="L147" s="42"/>
+      <c r="M147" s="42"/>
+      <c r="N147" s="42"/>
+      <c r="O147" s="43"/>
+      <c r="P147" s="154">
+        <f>P41</f>
+        <v>0</v>
+      </c>
+      <c r="Q147" s="184"/>
+    </row>
+    <row r="148" spans="1:17">
+      <c r="A148" s="75"/>
+      <c r="B148" s="76"/>
+      <c r="C148" s="76"/>
+      <c r="D148" s="76"/>
+      <c r="E148" s="76"/>
+      <c r="F148" s="76"/>
+      <c r="G148" s="76"/>
+      <c r="H148" s="76"/>
+      <c r="I148" s="76"/>
+      <c r="J148" s="155"/>
+      <c r="K148" s="156" t="s">
+        <v>28</v>
+      </c>
+      <c r="L148" s="157"/>
+      <c r="M148" s="157"/>
+      <c r="N148" s="157"/>
+      <c r="O148" s="158"/>
+      <c r="P148" s="159">
+        <f>ROUND(P144+P145+P146+P147,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q148" s="185"/>
+    </row>
+    <row r="149" spans="1:17">
+      <c r="A149" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="B149" s="78"/>
+      <c r="C149" s="78"/>
+      <c r="D149" s="78"/>
+      <c r="E149" s="78"/>
+      <c r="F149" s="78"/>
+      <c r="G149" s="79"/>
+      <c r="H149" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="I149" s="160"/>
+      <c r="J149" s="160"/>
+      <c r="K149" s="160"/>
+      <c r="L149" s="160"/>
+      <c r="M149" s="160"/>
+      <c r="N149" s="160"/>
+      <c r="O149" s="160"/>
+      <c r="P149" s="160"/>
+      <c r="Q149" s="186"/>
+    </row>
+    <row r="150" spans="1:17">
+      <c r="A150" s="81"/>
+      <c r="B150" s="82"/>
+      <c r="C150" s="82"/>
+      <c r="D150" s="82"/>
+      <c r="E150" s="82"/>
+      <c r="F150" s="82"/>
+      <c r="G150" s="83"/>
+      <c r="H150" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="I150" s="161"/>
+      <c r="J150" s="161"/>
+      <c r="K150" s="161"/>
+      <c r="L150" s="161"/>
+      <c r="M150" s="161"/>
+      <c r="N150" s="161"/>
+      <c r="O150" s="161"/>
+      <c r="P150" s="161"/>
+      <c r="Q150" s="187"/>
+    </row>
+    <row r="151" spans="1:17">
+      <c r="A151" s="81"/>
+      <c r="B151" s="82"/>
+      <c r="C151" s="82"/>
+      <c r="D151" s="82"/>
+      <c r="E151" s="82"/>
+      <c r="F151" s="82"/>
+      <c r="G151" s="83"/>
+      <c r="H151" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="I151" s="161"/>
+      <c r="J151" s="161"/>
+      <c r="K151" s="161"/>
+      <c r="L151" s="161"/>
+      <c r="M151" s="161"/>
+      <c r="N151" s="161"/>
+      <c r="O151" s="161"/>
+      <c r="P151" s="161"/>
+      <c r="Q151" s="187"/>
+    </row>
+    <row r="152" spans="1:17">
+      <c r="A152" s="81"/>
+      <c r="B152" s="82"/>
+      <c r="C152" s="82"/>
+      <c r="D152" s="82"/>
+      <c r="E152" s="82"/>
+      <c r="F152" s="82"/>
+      <c r="G152" s="83"/>
+      <c r="H152" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="I152" s="161"/>
+      <c r="J152" s="161"/>
+      <c r="K152" s="161"/>
+      <c r="L152" s="161"/>
+      <c r="M152" s="161"/>
+      <c r="N152" s="161"/>
+      <c r="O152" s="161"/>
+      <c r="P152" s="161"/>
+      <c r="Q152" s="187"/>
+    </row>
+    <row r="153" ht="15.75" spans="1:17">
+      <c r="A153" s="85"/>
+      <c r="B153" s="86"/>
+      <c r="C153" s="86"/>
+      <c r="D153" s="86"/>
+      <c r="E153" s="86"/>
+      <c r="F153" s="86"/>
+      <c r="G153" s="87"/>
+      <c r="H153" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="I153" s="162"/>
+      <c r="J153" s="162"/>
+      <c r="K153" s="162"/>
+      <c r="L153" s="162"/>
+      <c r="M153" s="162"/>
+      <c r="N153" s="162"/>
+      <c r="O153" s="162"/>
+      <c r="P153" s="162"/>
+      <c r="Q153" s="188"/>
+    </row>
+    <row r="154" spans="1:17">
+      <c r="A154" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="B154" s="90"/>
+      <c r="C154" s="90"/>
+      <c r="D154" s="90"/>
+      <c r="E154" s="90"/>
+      <c r="F154" s="90"/>
+      <c r="G154" s="91"/>
+      <c r="H154" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="I154" s="163"/>
+      <c r="J154" s="163"/>
+      <c r="K154" s="163"/>
+      <c r="L154" s="163"/>
+      <c r="M154" s="163"/>
+      <c r="N154" s="163"/>
+      <c r="O154" s="163"/>
+      <c r="P154" s="163"/>
+      <c r="Q154" s="189"/>
+    </row>
+    <row r="155" spans="1:17">
+      <c r="A155" s="93"/>
+      <c r="B155" s="94"/>
+      <c r="C155" s="94"/>
+      <c r="D155" s="94"/>
+      <c r="E155" s="94"/>
+      <c r="F155" s="94"/>
+      <c r="G155" s="95"/>
+      <c r="H155" s="96"/>
+      <c r="I155" s="164"/>
+      <c r="J155" s="164"/>
+      <c r="K155" s="164"/>
+      <c r="L155" s="164"/>
+      <c r="M155" s="164"/>
+      <c r="N155" s="164"/>
+      <c r="O155" s="164"/>
+      <c r="P155" s="164"/>
+      <c r="Q155" s="190"/>
+    </row>
+    <row r="156" spans="1:17">
+      <c r="A156" s="93"/>
+      <c r="B156" s="94"/>
+      <c r="C156" s="94"/>
+      <c r="D156" s="94"/>
+      <c r="E156" s="94"/>
+      <c r="F156" s="94"/>
+      <c r="G156" s="95"/>
+      <c r="H156" s="96"/>
+      <c r="I156" s="164"/>
+      <c r="J156" s="164"/>
+      <c r="K156" s="164"/>
+      <c r="L156" s="164"/>
+      <c r="M156" s="164"/>
+      <c r="N156" s="164"/>
+      <c r="O156" s="164"/>
+      <c r="P156" s="164"/>
+      <c r="Q156" s="190"/>
+    </row>
+    <row r="157" ht="15.75" spans="1:17">
+      <c r="A157" s="97"/>
+      <c r="B157" s="98"/>
+      <c r="C157" s="98"/>
+      <c r="D157" s="98"/>
+      <c r="E157" s="98"/>
+      <c r="F157" s="98"/>
+      <c r="G157" s="99"/>
+      <c r="H157" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="I157" s="165"/>
+      <c r="J157" s="165"/>
+      <c r="K157" s="165"/>
+      <c r="L157" s="165"/>
+      <c r="M157" s="165"/>
+      <c r="N157" s="165"/>
+      <c r="O157" s="165"/>
+      <c r="P157" s="165"/>
+      <c r="Q157" s="191"/>
+    </row>
+    <row r="158" spans="1:17">
+      <c r="A158" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="B158" s="102"/>
+      <c r="C158" s="102"/>
+      <c r="D158" s="102"/>
+      <c r="E158" s="102"/>
+      <c r="F158" s="102"/>
+      <c r="G158" s="102"/>
+      <c r="H158" s="102"/>
+      <c r="I158" s="102"/>
+      <c r="J158" s="102"/>
+      <c r="K158" s="102"/>
+      <c r="L158" s="102"/>
+      <c r="M158" s="102"/>
+      <c r="N158" s="102"/>
+      <c r="O158" s="102"/>
+      <c r="P158" s="102"/>
+      <c r="Q158" s="192"/>
+    </row>
+    <row r="159" ht="15.75" spans="1:17">
+      <c r="A159" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="B159" s="104"/>
+      <c r="C159" s="104"/>
+      <c r="D159" s="104"/>
+      <c r="E159" s="104"/>
+      <c r="F159" s="104"/>
+      <c r="G159" s="104"/>
+      <c r="H159" s="104"/>
+      <c r="I159" s="104"/>
+      <c r="J159" s="104"/>
+      <c r="K159" s="104"/>
+      <c r="L159" s="104"/>
+      <c r="M159" s="104"/>
+      <c r="N159" s="104"/>
+      <c r="O159" s="104"/>
+      <c r="P159" s="104"/>
+      <c r="Q159" s="193"/>
+    </row>
   </sheetData>
-  <mergeCells count="115">
+  <mergeCells count="357">
     <mergeCell ref="L2:Q2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A4:Q4"/>
     <mergeCell ref="A5:Q5"/>
     <mergeCell ref="A6:Q6"/>
     <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:I10"/>
-    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:I11"/>
-    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:Q11"/>
     <mergeCell ref="A12:Q12"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="J13:Q13"/>
@@ -3741,8 +6121,224 @@
     <mergeCell ref="H51:Q51"/>
     <mergeCell ref="A52:Q52"/>
     <mergeCell ref="A53:Q53"/>
+    <mergeCell ref="L55:Q55"/>
+    <mergeCell ref="A56:Q56"/>
+    <mergeCell ref="A57:Q57"/>
+    <mergeCell ref="A58:Q58"/>
+    <mergeCell ref="A59:Q59"/>
+    <mergeCell ref="A60:Q60"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:I63"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="M63:Q63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:I64"/>
+    <mergeCell ref="J64:L64"/>
+    <mergeCell ref="M64:Q64"/>
+    <mergeCell ref="A65:Q65"/>
+    <mergeCell ref="A66:I66"/>
+    <mergeCell ref="J66:Q66"/>
+    <mergeCell ref="C67:I67"/>
+    <mergeCell ref="L67:Q67"/>
+    <mergeCell ref="C70:I70"/>
+    <mergeCell ref="L70:Q70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="L71:O71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:O72"/>
+    <mergeCell ref="A73:Q73"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="L80:O80"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="L81:O81"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="L82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="L83:O83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="L84:O84"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="L85:O85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="L86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="L89:O89"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="L91:O91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="K92:O92"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="K93:O93"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="K94:O94"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="K95:O95"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="H96:Q96"/>
+    <mergeCell ref="H97:Q97"/>
+    <mergeCell ref="H98:Q98"/>
+    <mergeCell ref="H99:Q99"/>
+    <mergeCell ref="H100:Q100"/>
+    <mergeCell ref="H101:Q101"/>
+    <mergeCell ref="H104:Q104"/>
+    <mergeCell ref="A105:Q105"/>
+    <mergeCell ref="A106:Q106"/>
+    <mergeCell ref="L108:Q108"/>
+    <mergeCell ref="A109:Q109"/>
+    <mergeCell ref="A110:Q110"/>
+    <mergeCell ref="A111:Q111"/>
+    <mergeCell ref="A112:Q112"/>
+    <mergeCell ref="A113:Q113"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:I116"/>
+    <mergeCell ref="J116:L116"/>
+    <mergeCell ref="M116:Q116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:I117"/>
+    <mergeCell ref="J117:L117"/>
+    <mergeCell ref="M117:Q117"/>
+    <mergeCell ref="A118:Q118"/>
+    <mergeCell ref="A119:I119"/>
+    <mergeCell ref="J119:Q119"/>
+    <mergeCell ref="C120:I120"/>
+    <mergeCell ref="L120:Q120"/>
+    <mergeCell ref="C123:I123"/>
+    <mergeCell ref="L123:Q123"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="D125:O125"/>
+    <mergeCell ref="A126:Q126"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="L129:O129"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="L130:O130"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="H131:J131"/>
+    <mergeCell ref="L131:O131"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="H132:J132"/>
+    <mergeCell ref="L132:O132"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="H133:J133"/>
+    <mergeCell ref="L133:O133"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="H134:J134"/>
+    <mergeCell ref="L134:O134"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="H135:J135"/>
+    <mergeCell ref="L135:O135"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="H136:J136"/>
+    <mergeCell ref="L136:O136"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:J137"/>
+    <mergeCell ref="L137:O137"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="H138:J138"/>
+    <mergeCell ref="L138:O138"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="H139:J139"/>
+    <mergeCell ref="L139:O139"/>
+    <mergeCell ref="P139:Q139"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="H140:J140"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="P140:Q140"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="H141:J141"/>
+    <mergeCell ref="L141:O141"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="H142:J142"/>
+    <mergeCell ref="L142:O142"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="L143:O143"/>
+    <mergeCell ref="P143:Q143"/>
+    <mergeCell ref="A144:J144"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="P144:Q144"/>
+    <mergeCell ref="K145:O145"/>
+    <mergeCell ref="P145:Q145"/>
+    <mergeCell ref="K146:O146"/>
+    <mergeCell ref="P146:Q146"/>
+    <mergeCell ref="K147:O147"/>
+    <mergeCell ref="P147:Q147"/>
+    <mergeCell ref="K148:O148"/>
+    <mergeCell ref="P148:Q148"/>
+    <mergeCell ref="H149:Q149"/>
+    <mergeCell ref="H150:Q150"/>
+    <mergeCell ref="H151:Q151"/>
+    <mergeCell ref="H152:Q152"/>
+    <mergeCell ref="H153:Q153"/>
+    <mergeCell ref="H154:Q154"/>
+    <mergeCell ref="H157:Q157"/>
+    <mergeCell ref="A158:Q158"/>
+    <mergeCell ref="A159:Q159"/>
     <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A127:A128"/>
     <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="K127:K128"/>
     <mergeCell ref="A8:Q9"/>
     <mergeCell ref="C15:I16"/>
     <mergeCell ref="L15:Q16"/>
@@ -3754,6 +6350,28 @@
     <mergeCell ref="A43:G47"/>
     <mergeCell ref="A48:G51"/>
     <mergeCell ref="H49:Q50"/>
+    <mergeCell ref="A61:Q62"/>
+    <mergeCell ref="C68:I69"/>
+    <mergeCell ref="L68:Q69"/>
+    <mergeCell ref="B74:G75"/>
+    <mergeCell ref="H74:J75"/>
+    <mergeCell ref="L74:O75"/>
+    <mergeCell ref="P74:Q75"/>
+    <mergeCell ref="A92:J95"/>
+    <mergeCell ref="A96:G100"/>
+    <mergeCell ref="A101:G104"/>
+    <mergeCell ref="H102:Q103"/>
+    <mergeCell ref="A114:Q115"/>
+    <mergeCell ref="C121:I122"/>
+    <mergeCell ref="L121:Q122"/>
+    <mergeCell ref="B127:G128"/>
+    <mergeCell ref="H127:J128"/>
+    <mergeCell ref="L127:O128"/>
+    <mergeCell ref="P127:Q128"/>
+    <mergeCell ref="A145:J148"/>
+    <mergeCell ref="A149:G153"/>
+    <mergeCell ref="A154:G157"/>
+    <mergeCell ref="H155:Q156"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
